--- a/docs/PTA2_DDC_100/PTA2_DDC_100_26.07.24_output.xlsx
+++ b/docs/PTA2_DDC_100/PTA2_DDC_100_26.07.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L85"/>
+  <dimension ref="A1:N85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731788770.93963</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731788771.1246512</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731788770.93963.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731788771.1246512.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>299.5</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>298.75</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.75</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731788771.138587</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731788771.2007506</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731788771.138587.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731788771.2007506.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>298.75</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>298.87</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.1200000000000045</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731788771.6308615</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731788771.9733746</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731788771.6308615.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731788771.9733746.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>296.25</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>297.84</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>1.589999999999975</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.54</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731788772.6227403</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731788774.6430912</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731788772.6227403.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731788774.6430912.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>295.06</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>295</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-0.06000000000000227</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731788775.8771663</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731788776.3403723</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731788775.8771663.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731788776.3403723.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>295.6</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>294.18</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>1.420000000000016</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731788776.4434073</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731788776.5429876</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731788776.4434073.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731788776.5429876.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>293.8</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>294.6</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.8000000000000114</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731788781.3876116</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731788781.4624815</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731788781.3876116.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731788781.4624815.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>136.46</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>136.18</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.2800000000000011</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -903,51 +961,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731788782.0031104</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731788782.211864</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731788782.0031104.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731788782.211864.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>133.67</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>135.33</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>1.660000000000025</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>1.24</v>
       </c>
     </row>
@@ -955,51 +1019,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731788783.153335</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731788784.976714</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731788783.153335.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731788784.976714.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>133.1</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>133.56</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.460000000000008</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -1007,51 +1077,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731788786.164129</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731788788.7210314</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731788786.164129.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731788788.7210314.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>134.12</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>135.01</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-0.8899999999999864</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>-0.66</v>
       </c>
     </row>
@@ -1059,51 +1135,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731788789.074873</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731788789.9968088</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731788789.074873.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731788789.9968088.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>6945</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>6947</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-2</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -1111,51 +1193,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731788792.2322536</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731788792.484069</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731788792.2322536.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731788792.484069.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>6925.5</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>6936</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>10.5</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -1163,51 +1251,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731788793.188067</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731788793.810324</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731788793.188067.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731788793.810324.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>6892.5</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>6928</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>35.5</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.52</v>
       </c>
     </row>
@@ -1215,51 +1309,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731788797.7883286</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731788797.8997416</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731788797.7883286.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731788797.8997416.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>6947</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>6933.5</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>13.5</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -1267,51 +1367,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731788798.060087</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731788798.3021731</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731788798.060087.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731788798.3021731.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>6931.5</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>6941</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>9.5</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -1319,51 +1425,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731788800.7824342</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731788801.8234637</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731788800.7824342.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731788801.8234637.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>537.8</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>537.05</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.75</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -1371,51 +1483,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731788801.871542</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731788802.1837146</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731788801.871542.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731788802.1837146.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>535.75</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>534.8</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-0.9500000000000455</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -1423,51 +1541,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731788802.7892935</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731788806.3783674</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731788802.7892935.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731788806.3783674.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>530.3</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>522.15</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-8.149999999999977</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>-1.54</v>
       </c>
     </row>
@@ -1475,95 +1599,107 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731788807.6545968</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731788807.6545968.png</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731788807.6545968.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>524.75</v>
       </c>
-      <c r="J21" t="n">
-        <v>524.75</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>524.9</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-0.1499999999999773</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731788808.8169084</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731788809.325863</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731788808.8169084.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731788809.325863.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>1096.8</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>1093.8</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>3</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -1571,51 +1707,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731788810.1737745</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731788810.6757648</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731788810.1737745.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731788810.6757648.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>1092</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>1094.8</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>2.799999999999955</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -1623,51 +1765,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731788811.3855755</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731788811.4895163</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731788811.3855755.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731788811.4895163.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>1098</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>1094.2</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>3.799999999999955</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -1675,51 +1823,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731788811.919903</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731788812.2702436</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731788811.919903.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731788812.2702436.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>1086.6</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>1087</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.4000000000000909</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -1727,51 +1881,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731788812.984178</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731788816.634676</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731788812.984178.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731788816.634676.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>1072.4</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>1066.6</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-5.800000000000182</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>-0.54</v>
       </c>
     </row>
@@ -1779,51 +1939,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731788816.8135633</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731788818.9575086</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731788816.8135633.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731788818.9575086.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>1069</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>1073</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-4</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>-0.37</v>
       </c>
     </row>
@@ -1831,51 +1997,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731788819.367071</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731788820.1583276</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731788819.367071.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731788820.1583276.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>131.08</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>130.76</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.3200000000000216</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -1883,51 +2055,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731788821.6869123</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731788826.7757463</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731788821.6869123.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731788826.7757463.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>130.02</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>126.52</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-3.500000000000014</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>-2.69</v>
       </c>
     </row>
@@ -1935,95 +2113,107 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731788826.8516352</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731788826.8516352.png</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731788826.8516352.png</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>126.46</v>
       </c>
-      <c r="J30" t="n">
-        <v>126.46</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>127.3</v>
+      </c>
+      <c r="M30" t="n">
+        <v>-0.8400000000000034</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-0.66</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731788830.8946614</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731788831.9684193</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731788830.8946614.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731788831.9684193.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>174.04</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>174.48</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-0.4399999999999977</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -2031,51 +2221,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731788832.1051319</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731788832.3594198</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731788832.1051319.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731788832.3594198.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>172.04</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>174.5</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>2.460000000000008</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>1.43</v>
       </c>
     </row>
@@ -2083,51 +2279,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731788833.0391219</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731788836.0101295</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731788833.0391219.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731788836.0101295.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>170.6</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>168.58</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-2.019999999999982</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>-1.18</v>
       </c>
     </row>
@@ -2135,51 +2337,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731788839.277951</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731788841.6047204</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731788839.277951.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731788841.6047204.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>53.425</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>53.33</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.09499999999999886</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -2187,51 +2395,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731788842.0443223</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731788842.4248648</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731788842.0443223.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731788842.4248648.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>53.21</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>53.25</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.03999999999999915</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -2239,51 +2453,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731788842.6838129</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731788847.0975184</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731788842.6838129.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731788847.0975184.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>53.04</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>52.31</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-0.7299999999999969</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>-1.38</v>
       </c>
     </row>
@@ -2291,95 +2511,107 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731788847.8022504</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731788847.8022504.png</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731788847.8022504.png</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>52.36</v>
       </c>
-      <c r="J37" t="n">
-        <v>52.36</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>52.505</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-0.1450000000000031</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.28</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731788849.1957216</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731788850.0861812</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731788849.1957216.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731788850.0861812.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>1464.8</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>1458.2</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>6.599999999999909</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -2387,51 +2619,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731788852.016331</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731788852.301682</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731788852.016331.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731788852.301682.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>1453.4</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>1448.8</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-4.600000000000136</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>-0.32</v>
       </c>
     </row>
@@ -2439,51 +2677,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731788853.8674338</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731788855.293402</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731788853.8674338.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731788855.293402.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>1430.4</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>1432.4</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>2</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -2491,51 +2735,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731788856.2862785</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731788856.9975052</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731788856.2862785.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731788856.9975052.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>1437.2</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>1430.8</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>6.400000000000091</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -2543,95 +2793,107 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731788857.6839576</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731788857.6839576.png</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731788857.6839576.png</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>1446</v>
       </c>
-      <c r="J42" t="n">
-        <v>1446</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1440.2</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5.799999999999955</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731788859.0393715</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731788859.4618556</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731788859.0393715.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731788859.4618556.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>63.73</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>63.52</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.2099999999999937</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -2639,51 +2901,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731788859.9295733</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731788860.3910806</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731788859.9295733.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731788860.3910806.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>63.43</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>63.78</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.3500000000000014</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.5499999999999999</v>
       </c>
     </row>
@@ -2691,51 +2959,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731788860.431971</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731788861.1533072</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731788860.431971.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731788861.1533072.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>63.82</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>63.55</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.2700000000000031</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -2743,51 +3017,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731788861.537809</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731788861.8134248</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731788861.537809.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731788861.8134248.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>63.16</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>63.23</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.07000000000000028</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -2795,51 +3075,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731788862.465302</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731788865.401206</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731788862.465302.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731788865.401206.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>62.52</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>61.3</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>-1.220000000000006</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>-1.95</v>
       </c>
     </row>
@@ -2847,51 +3133,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731788865.674803</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731788867.3000712</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731788865.674803.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731788867.3000712.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>61.5</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>61.38</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.1199999999999974</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -2899,51 +3191,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731788868.7733576</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731788870.2037446</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/SELG1731788868.7733576.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/SELG1731788870.2037446.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>58.97</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>58.78</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.1899999999999977</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -2951,51 +3249,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731788870.298667</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731788870.6088817</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/SELG1731788870.298667.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/SELG1731788870.6088817.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>58.29</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>58.46</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.1700000000000017</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -3003,51 +3307,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731788871.249631</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731788874.1652572</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/SELG1731788871.249631.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/SELG1731788874.1652572.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>57.7</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>57.05</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>-0.6500000000000057</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>-1.13</v>
       </c>
     </row>
@@ -3055,51 +3365,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731788874.3480465</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731788876.4037786</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/SELG1731788874.3480465.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/SELG1731788876.4037786.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>57.53</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>57.16</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.3700000000000045</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>0.64</v>
       </c>
     </row>
@@ -3107,51 +3423,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731788876.7342887</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731788877.6139777</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731788876.7342887.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731788877.6139777.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>144.94</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>144.1</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.8400000000000034</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.58</v>
       </c>
     </row>
@@ -3159,51 +3481,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731788879.5708873</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731788880.1060338</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731788879.5708873.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731788880.1060338.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>143.52</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>143.54</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.01999999999998181</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -3211,51 +3539,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731788880.667611</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731788882.5972178</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731788880.667611.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731788882.5972178.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>141.08</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>139.98</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>-1.100000000000023</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>-0.7799999999999999</v>
       </c>
     </row>
@@ -3263,51 +3597,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731788887.8747122</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731788888.2258506</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731788887.8747122.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731788888.2258506.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>58.64</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>58.39</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.25</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>0.43</v>
       </c>
     </row>
@@ -3315,51 +3655,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731788888.615357</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731788891.3116078</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731788888.615357.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731788891.3116078.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>57.54</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>56.08</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>-1.460000000000001</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>-2.54</v>
       </c>
     </row>
@@ -3367,51 +3713,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731788892.1645765</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731788893.5082881</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731788892.1645765.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731788893.5082881.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>56.33</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>56.33</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3419,95 +3771,107 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731788894.1732924</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>./test_images/ABIO1731788894.1732924.png</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
+          <t>./test_images/ABIO1731788894.1732924.png</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>56.08</v>
       </c>
-      <c r="J59" t="n">
-        <v>56.08</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0</v>
-      </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>56.07</v>
+      </c>
+      <c r="M59" t="n">
+        <v>-0.00999999999999801</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731788895.078905</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731788895.788917</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731788895.078905.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731788895.788917.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>381.84</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>385</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>3.160000000000025</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>0.83</v>
       </c>
     </row>
@@ -3515,51 +3879,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731788896.2493222</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731788897.0627768</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731788896.2493222.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731788897.0627768.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>385.4</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>382.66</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>2.739999999999952</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>0.7100000000000001</v>
       </c>
     </row>
@@ -3567,51 +3937,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731788897.5278807</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731788899.2497993</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731788897.5278807.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731788899.2497993.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>381.93</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>382.83</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.8999999999999773</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -3619,51 +3995,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731788900.069909</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731788901.5942354</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731788900.069909.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731788901.5942354.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>383.67</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>384.62</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>-0.9499999999999886</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -3671,95 +4053,107 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731788902.756562</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>./test_images/BSPB1731788902.756562.png</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
+          <t>./test_images/BSPB1731788902.756562.png</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>384.2</v>
       </c>
-      <c r="J64" t="n">
-        <v>384.2</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>383.6</v>
+      </c>
+      <c r="M64" t="n">
+        <v>-0.5999999999999659</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731788905.9920907</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731788906.2887132</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/FEES1731788905.9920907.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/FEES1731788906.2887132.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>0.10068</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>0.10104</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.0003599999999999992</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -3767,51 +4161,57 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731788906.5843294</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731788909.4539883</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/FEES1731788906.5843294.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/FEES1731788909.4539883.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>0.09954</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>0.09846000000000001</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>-0.001079999999999998</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>-1.08</v>
       </c>
     </row>
@@ -3819,51 +4219,57 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731788910.4048016</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731788912.1304991</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/FEES1731788910.4048016.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/FEES1731788912.1304991.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>0.09904</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>0.09864000000000001</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.0003999999999999976</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -3871,51 +4277,57 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731788912.7827272</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731788913.7142363</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/MXI1731788912.7827272.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/MXI1731788913.7142363.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>3134.05</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>3125.55</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>8.5</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -3923,51 +4335,57 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731788915.3306034</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731788915.4337354</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/MXI1731788915.3306034.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/MXI1731788915.4337354.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>3138.55</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>3129.05</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>9.5</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -3975,51 +4393,57 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731788915.9645414</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731788916.167788</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/MXI1731788915.9645414.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/MXI1731788916.167788.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>3100.75</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>3117.95</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>17.19999999999982</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>0.5499999999999999</v>
       </c>
     </row>
@@ -4027,51 +4451,57 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731788916.9000394</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731788918.966988</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/MXI1731788916.9000394.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/MXI1731788918.966988.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>3075.5</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>3074.7</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>-0.8000000000001819</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -4079,51 +4509,57 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731788919.8751276</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731788921.5973525</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/MXI1731788919.8751276.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/MXI1731788921.5973525.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>3079.95</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>3076.6</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>3.349999999999909</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -4131,95 +4567,107 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731788922.3394842</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731788922.3394842.png</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731788922.3394842.png</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>3073.55</v>
       </c>
-      <c r="J73" t="n">
-        <v>3073.55</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0</v>
-      </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>3065.9</v>
+      </c>
+      <c r="M73" t="n">
+        <v>-7.650000000000091</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731788922.671525</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731788923.9442272</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731788922.671525.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731788923.9442272.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>37.945</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>37.815</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>0.1300000000000026</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -4227,51 +4675,57 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731788924.545414</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731788925.427612</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731788924.545414.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731788925.427612.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>37.785</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>37.79</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>0.005000000000002558</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -4279,51 +4733,57 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731788925.5010743</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731788925.7647262</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731788925.5010743.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731788925.7647262.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>37.63</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>37.56</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>-0.07000000000000028</v>
       </c>
-      <c r="L76" t="n">
+      <c r="N76" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -4331,51 +4791,57 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731788926.2528405</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731788928.8885617</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731788926.2528405.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731788928.8885617.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>37.125</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>35.9</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>-1.225000000000001</v>
       </c>
-      <c r="L77" t="n">
+      <c r="N77" t="n">
         <v>-3.3</v>
       </c>
     </row>
@@ -4383,51 +4849,57 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731788929.3175616</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731788931.3060255</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731788929.3175616.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731788931.3060255.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>36.12</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>35.96</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>0.1599999999999966</v>
       </c>
-      <c r="L78" t="n">
+      <c r="N78" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -4435,95 +4907,107 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731788931.4732726</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>./test_images/RUAL1731788931.4732726.png</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
+          <t>./test_images/RUAL1731788931.4732726.png</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>35.855</v>
       </c>
-      <c r="J79" t="n">
-        <v>35.855</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0</v>
-      </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>35.8</v>
+      </c>
+      <c r="M79" t="n">
+        <v>-0.05499999999999972</v>
+      </c>
+      <c r="N79" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731788934.1394968</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731788935.0818136</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/TATN1731788934.1394968.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/TATN1731788935.0818136.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>661.3</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>659.5</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>1.799999999999955</v>
       </c>
-      <c r="L80" t="n">
+      <c r="N80" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -4531,51 +5015,57 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731788935.5770085</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731788935.9198763</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/TATN1731788935.5770085.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/TATN1731788935.9198763.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>657.7</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>658</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>0.2999999999999545</v>
       </c>
-      <c r="L81" t="n">
+      <c r="N81" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -4583,51 +5073,57 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731788936.7486007</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731788937.2835777</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/TATN1731788936.7486007.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/TATN1731788937.2835777.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>652.2</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>657</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>4.799999999999955</v>
       </c>
-      <c r="L82" t="n">
+      <c r="N82" t="n">
         <v>0.74</v>
       </c>
     </row>
@@ -4635,51 +5131,57 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731788937.8723214</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731788939.5007787</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/TATN1731788937.8723214.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/TATN1731788939.5007787.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>649.5</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>654.1</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>4.600000000000023</v>
       </c>
-      <c r="L83" t="n">
+      <c r="N83" t="n">
         <v>0.7100000000000001</v>
       </c>
     </row>
@@ -4687,51 +5189,57 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731788940.1643622</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731788941.053167</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/TATN1731788940.1643622.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/TATN1731788941.053167.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>657.3</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>653.9</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>3.399999999999977</v>
       </c>
-      <c r="L84" t="n">
+      <c r="N84" t="n">
         <v>0.52</v>
       </c>
     </row>
@@ -4739,44 +5247,50 @@
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731788941.6598413</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>./test_images/TATN1731788941.6598413.png</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
+          <t>./test_images/TATN1731788941.6598413.png</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>653.4</v>
       </c>
-      <c r="J85" t="n">
-        <v>653.4</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0</v>
-      </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>651.6</v>
+      </c>
+      <c r="M85" t="n">
+        <v>-1.799999999999955</v>
+      </c>
+      <c r="N85" t="n">
+        <v>-0.28</v>
       </c>
     </row>
   </sheetData>
@@ -4837,19 +5351,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37.74999999999955</v>
+        <v>30.09999999999945</v>
       </c>
       <c r="C2" t="n">
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>6.291666666666591</v>
+        <v>5.016666666666576</v>
       </c>
       <c r="E2" t="n">
-        <v>1.2</v>
+        <v>0.95</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="3">
@@ -4881,19 +5395,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14.89999999999986</v>
+        <v>13.09999999999991</v>
       </c>
       <c r="C4" t="n">
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>2.483333333333311</v>
+        <v>2.183333333333318</v>
       </c>
       <c r="E4" t="n">
-        <v>2.29</v>
+        <v>2.01</v>
       </c>
       <c r="F4" t="n">
-        <v>0.38</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="5">
@@ -4925,19 +5439,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1</v>
+        <v>-1.055</v>
       </c>
       <c r="C6" t="n">
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1666666666666667</v>
+        <v>-0.1758333333333333</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.7</v>
+        <v>-2.85</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.45</v>
+        <v>-0.48</v>
       </c>
     </row>
     <row r="7">
@@ -4969,19 +5483,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.849999999999966</v>
+        <v>5.25</v>
       </c>
       <c r="C8" t="n">
         <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>1.169999999999993</v>
+        <v>1.05</v>
       </c>
       <c r="E8" t="n">
-        <v>1.53</v>
+        <v>1.37</v>
       </c>
       <c r="F8" t="n">
-        <v>0.31</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="9">
@@ -4991,19 +5505,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10.39999999999986</v>
+        <v>16.19999999999982</v>
       </c>
       <c r="C9" t="n">
         <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>2.079999999999973</v>
+        <v>3.239999999999964</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7199999999999999</v>
+        <v>1.12</v>
       </c>
       <c r="F9" t="n">
-        <v>0.14</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="10">
@@ -5057,16 +5571,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-8.350000000000023</v>
+        <v>-8.5</v>
       </c>
       <c r="C12" t="n">
         <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>-2.087500000000006</v>
+        <v>-2.125</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.58</v>
+        <v>-1.61</v>
       </c>
       <c r="F12" t="n">
         <v>-0.4</v>
@@ -5079,16 +5593,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.210000000000001</v>
+        <v>-1.219999999999999</v>
       </c>
       <c r="C13" t="n">
         <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.3025000000000002</v>
+        <v>-0.3049999999999997</v>
       </c>
       <c r="E13" t="n">
-        <v>-2.11</v>
+        <v>-2.13</v>
       </c>
       <c r="F13" t="n">
         <v>-0.53</v>
@@ -5101,19 +5615,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.5949999999999989</v>
+        <v>-0.740000000000002</v>
       </c>
       <c r="C14" t="n">
         <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1487499999999997</v>
+        <v>-0.1850000000000005</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.12</v>
+        <v>-1.4</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.28</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="15">
@@ -5167,19 +5681,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3.179999999999993</v>
+        <v>-4.019999999999996</v>
       </c>
       <c r="C17" t="n">
         <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.059999999999998</v>
+        <v>-1.339999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>-2.45</v>
+        <v>-3.11</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.82</v>
+        <v>-1.04</v>
       </c>
     </row>
     <row r="18">
